--- a/data/trans_dic/P15_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,67 +691,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,73</t>
+          <t>0,39; 3,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,4</t>
+          <t>1,94; 6,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 25,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,52</t>
+          <t>1,37; 5,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,48</t>
+          <t>4,06; 9,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 14,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,9</t>
+          <t>1,13; 3,87</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,62</t>
+          <t>3,56; 6,93</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,88</t>
+          <t>1,17; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,39</t>
+          <t>7,31; 12,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 25,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,26</t>
+          <t>0,27; 2,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,54</t>
+          <t>0,23; 2,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,74</t>
+          <t>2,16; 5,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,76</t>
+          <t>7,14; 11,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,25</t>
+          <t>0,18; 1,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,05</t>
+          <t>0,13; 1,38</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,24</t>
+          <t>2,01; 4,12</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,67</t>
+          <t>8,05; 11,49</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 23,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,0</t>
+          <t>0,4; 4,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,71</t>
+          <t>2,38; 6,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,97</t>
+          <t>6,4; 11,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 28,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,61</t>
+          <t>0,34; 3,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,48</t>
+          <t>0,27; 2,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,36</t>
+          <t>4,17; 8,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,6</t>
+          <t>8,48; 13,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,4; 26,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,24</t>
+          <t>0,4; 2,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,83</t>
+          <t>0,5; 2,28</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,76</t>
+          <t>3,81; 6,92</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,92</t>
+          <t>8,05; 11,68</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 25,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,26</t>
+          <t>0,14; 1,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,64</t>
+          <t>1,31; 6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 23,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,6</t>
+          <t>0,59; 2,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,0</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,37</t>
+          <t>2,43; 6,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,78; 19,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,98</t>
+          <t>0,28; 0,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,96</t>
+          <t>0,2; 1,18</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,16</t>
+          <t>2,18; 5,3</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 9,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 20,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 1,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 3,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 9,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 1,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 5,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 10,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 0,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 4,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 9,46</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27150</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18955</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>54087</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25641</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>81237</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2090; 16619</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14137; 46459</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10428</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8772; 37709</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36508; 80863</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8348</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13192; 45286</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>57843; 112697</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2637</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27754</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>156073</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43211</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138609</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10282</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>70964</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>294682</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12137</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13640</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14126; 53514</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>118500; 205688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1906; 20876</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2253; 23197</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26606; 65313</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>107651; 172961</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2485; 22168</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2425; 26743</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>48963; 100633</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>251937; 359535</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5405</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10839</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35256</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>96067</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6314</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56935</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>124587</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11125</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17153</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>92191</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>220654</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18094</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2847; 29024</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20134; 55438</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>69936; 123573</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1790; 17503</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2067; 18917</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39287; 78917</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98630; 159551</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3906; 25096</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7472; 33862</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>68105; 123710</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>181685; 263693</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8795</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24138</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23362</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31097</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23362</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13960</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>55235</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1996; 23912</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11237; 55187</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12373; 42747</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 21232</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18559; 50933</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11606; 41279</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5814; 33882</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>35361; 86090</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22271</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>93834</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>279291</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21132</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>150198</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>317283</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43929</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43403</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>244032</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>596573</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2365; 22581</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9902; 42420</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>67055; 132301</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>225533; 335416</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21908; 54233</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10954; 40800</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>118978; 188649</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>263735; 364665</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26826; 65457</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26166; 70704</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>201435; 293368</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>529858; 663547</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>